--- a/Data/EC/NIT-9009386824.xlsx
+++ b/Data/EC/NIT-9009386824.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D080E670-10F9-4000-B0BF-511B66B61589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB973B0D-3C31-44CA-95A0-F47BD020C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B45241D9-1AC0-4F40-8697-B78515D73861}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A420173-AB35-4645-897D-58C278F7069A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>ANGEL ESTEBAN MARTINEZ CARDENAS</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
     <t>1809</t>
   </si>
   <si>
+    <t>73546271</t>
+  </si>
+  <si>
+    <t>DAVID FRANCISCO ROMERO JARABA</t>
+  </si>
+  <si>
     <t>73429088</t>
   </si>
   <si>
     <t>ISAITH ENRIQUE BOBADILLA ARDILA</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>73546271</t>
-  </si>
-  <si>
-    <t>DAVID FRANCISCO ROMERO JARABA</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -145,7 +145,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD9F05-BA40-D3CE-E8EB-78ACEFCF8BC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39823615-C01B-9C2D-DD81-616959A0EB43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,28 +866,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4774808-8E9A-4D77-8D9F-E49CA1C93CFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F52A7C9-4A5F-4D42-A050-68107E273BFA}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -900,7 +900,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -911,7 +911,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -922,7 +922,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -933,8 +933,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -949,8 +949,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -965,8 +965,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -981,8 +981,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1053,18 +1053,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>31249</v>
@@ -1076,18 +1076,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1099,7 +1099,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1122,18 +1122,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1145,7 +1145,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1168,15 +1168,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1191,21 +1191,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1214,18 +1214,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1237,18 +1237,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1260,18 +1260,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1283,18 +1283,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1306,18 +1306,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1329,21 +1329,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1352,18 +1352,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1375,18 +1375,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1398,21 +1398,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1421,21 +1421,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1444,21 +1444,21 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>21</v>
-      </c>
       <c r="F34" s="24">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="24">
         <v>781242</v>
@@ -1467,7 +1467,7 @@
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
         <v>31</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
         <v>30</v>
       </c>

--- a/Data/EC/NIT-9009386824.xlsx
+++ b/Data/EC/NIT-9009386824.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB973B0D-3C31-44CA-95A0-F47BD020C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6BDD98-36D6-455B-9A52-2132F9F39B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A420173-AB35-4645-897D-58C278F7069A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A0BA4EBB-6532-4F09-B78F-9652FAB24623}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>ANGEL ESTEBAN MARTINEZ CARDENAS</t>
   </si>
   <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>73546271</t>
+  </si>
+  <si>
+    <t>DAVID FRANCISCO ROMERO JARABA</t>
+  </si>
+  <si>
+    <t>73429088</t>
+  </si>
+  <si>
+    <t>ISAITH ENRIQUE BOBADILLA ARDILA</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>73546271</t>
-  </si>
-  <si>
-    <t>DAVID FRANCISCO ROMERO JARABA</t>
-  </si>
-  <si>
-    <t>73429088</t>
-  </si>
-  <si>
-    <t>ISAITH ENRIQUE BOBADILLA ARDILA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -145,7 +145,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,13 +500,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39823615-C01B-9C2D-DD81-616959A0EB43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F0E21A-005D-91C8-FE9E-AE1E0311BD42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,7 +537,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -866,28 +866,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F52A7C9-4A5F-4D42-A050-68107E273BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60EC070-0C1A-42CD-94B6-74C49491A4A6}">
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -900,7 +900,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -911,7 +911,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -922,7 +922,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -933,8 +933,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -949,8 +949,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -965,8 +965,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -981,8 +981,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1053,7 +1053,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1076,18 +1076,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1099,18 +1099,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1122,7 +1122,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1145,18 +1145,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1168,15 +1168,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1191,21 +1191,21 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1214,18 +1214,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1237,18 +1237,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1260,18 +1260,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1283,18 +1283,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1306,18 +1306,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1329,21 +1329,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F29" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1352,18 +1352,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1375,18 +1375,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1398,21 +1398,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1421,21 +1421,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1444,21 +1444,21 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>16</v>
-      </c>
       <c r="F34" s="24">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G34" s="24">
         <v>781242</v>
@@ -1467,7 +1467,7 @@
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="32" t="s">
         <v>31</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="32" t="s">
         <v>30</v>
       </c>
